--- a/docentes/Rodriguez Roman Marisol - Estadisticos 20202.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 20202.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Estadisticos 1P" sheetId="1" r:id="rId1"/>
-    <sheet name="Estadisticos 2P" sheetId="2" r:id="rId2"/>
-    <sheet name="Estadisticos Final" sheetId="3" r:id="rId3"/>
-    <sheet name="Rescatables" sheetId="4" r:id="rId4"/>
+    <sheet name="Estadisticos Final" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mat</t>
   </si>
@@ -65,42 +62,6 @@
   </si>
   <si>
     <t>6APM</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Paterno</t>
-  </si>
-  <si>
-    <t>Materno</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Nombre_Largo</t>
-  </si>
-  <si>
-    <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>PATRICIA MARLENE</t>
   </si>
 </sst>
 </file>
@@ -516,7 +477,7 @@
         <v>96</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -533,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>86.95999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -568,7 +529,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -585,298 +546,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>90.91</v>
-      </c>
-      <c r="H5">
-        <v>7.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>86.95999999999999</v>
-      </c>
-      <c r="H3">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>96.43000000000001</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>90.91</v>
-      </c>
-      <c r="H5">
-        <v>7.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>91.3</v>
-      </c>
-      <c r="H3">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>96.43000000000001</v>
-      </c>
-      <c r="H4">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
@@ -887,92 +556,6 @@
       </c>
       <c r="H5">
         <v>7.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920322</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920357</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
